--- a/jpcore-r4/feature/swg45_FamilyMember/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/feature/swg45_FamilyMember/StructureDefinition-jp-familymemberhistory.xlsx
@@ -666,7 +666,7 @@
     <t>この人が患者（父、母、兄弟など）との関係のタイプ。 / The type of relationship this person has to the patient (father, mother, brother etc.).</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_FamilyMemberHistory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_FamilyMember_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -1311,7 +1311,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.76953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
